--- a/data/income_statement/2digits/total/42_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/42_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>42-Civil engineering</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>42-Civil engineering</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,113 +841,128 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>23094681.87003</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>29144846.57462</v>
+        <v>29144988.34501</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>32017753.1647</v>
+        <v>32147096.61162</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>38306757.85837</v>
+        <v>40434665.13727</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>46161897.55585</v>
+        <v>47271690.55652001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>57003040.62443</v>
+        <v>58487008.50570001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>55222727.1897</v>
+        <v>63333599.52186</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>83330988.01644</v>
+        <v>83438441.22807001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>94264326.43066001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>115357950.62947</v>
+        <v>115796192.29578</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>154632423.20984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>157294472.65966</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>170483887.944</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>20531948.83879</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>26595888.28723</v>
+        <v>26596030.05762</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>29241342.87765</v>
+        <v>29353870.7253</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>34623552.62471999</v>
+        <v>34996448.04789</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>40504761.88202</v>
+        <v>41176264.86376</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>51019036.6526</v>
+        <v>52458861.06326</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>48488575.50225001</v>
+        <v>56144160.53898999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>70110606.91072002</v>
+        <v>70217740.29228999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>78463139.32524998</v>
+        <v>78463139.32525</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>96610031.25773001</v>
+        <v>97044466.76072</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>134733753.45997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>137150096.91802</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>147536315.019</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2241371.54011</v>
+        <v>2241371.540109999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>2139666.69893</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2231809.65704</v>
+        <v>2248431.56311</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2926931.24815</v>
+        <v>4681904.88395</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4683059.6884</v>
+        <v>4976639.01837</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5086500.17872</v>
+        <v>5122905.571620001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5787301.19789</v>
+        <v>6064207.57783</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>12066664.72882</v>
@@ -1055,16 +971,21 @@
         <v>14360702.07623</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>16466970.94049</v>
+        <v>16469800.65198</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>16968487.20259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17202316.81169</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19467531.492</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>321361.49113</v>
@@ -1073,37 +994,42 @@
         <v>409291.5884600001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>544600.63001</v>
+        <v>544794.3232099999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>756273.9855000001</v>
+        <v>756312.2054300002</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>974075.9854300001</v>
+        <v>1118786.67439</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>897503.7931100001</v>
+        <v>905241.87082</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>946850.4895599999</v>
+        <v>1125231.40504</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1153716.3769</v>
+        <v>1154036.20696</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1440485.02918</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2280948.43125</v>
+        <v>2281924.88308</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2930182.54728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2942058.92995</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3480041.433</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>115324.67727</v>
@@ -1112,19 +1038,19 @@
         <v>549744.35451</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>201792.06971</v>
+        <v>202704.32274</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>106417.56429</v>
+        <v>106544.89738</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>123406.36922</v>
+        <v>123666.26</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>258321.26252</v>
+        <v>259092.59812</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>283329.3730400001</v>
+        <v>294362.541</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>2055962.77675</v>
@@ -1133,37 +1059,42 @@
         <v>1127461.29937</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>629746.55534</v>
+        <v>629828.64905</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1469379.24635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1744955.76597</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2303903.719</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>33709.69976</v>
+        <v>33709.69975999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>57968.14962</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>42264.36225999999</v>
+        <v>43176.61529</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>44881.42169</v>
+        <v>44928.61619000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>60374.21811</v>
+        <v>60571.91321</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>135822.3826</v>
+        <v>136537.8807</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>170186.17583</v>
+        <v>177845.44802</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>1754384.05909</v>
@@ -1172,19 +1103,24 @@
         <v>221068.72249</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>310709.31822</v>
+        <v>310791.41193</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>621984.2032500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>622770.2704800001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1714828.48</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>73447.17358000002</v>
+        <v>73447.17357999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>483123.98503</v>
@@ -1193,55 +1129,60 @@
         <v>156550.41252</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>46808.68834</v>
+        <v>46808.68834000002</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>52888.41698000001</v>
+        <v>52950.61266000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>111340.93076</v>
+        <v>111377.6272</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>104973.81063</v>
+        <v>108321.53554</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>280612.21484</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>892421.1189599999</v>
+        <v>892421.11896</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>295794.1444</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>815594.9925399999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>815755.40115</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>572938.3810000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>8167.80393</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>8652.219859999999</v>
+        <v>8652.219859999997</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>2977.29493</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>14727.45426</v>
+        <v>14807.59285</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>10143.73413</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>11157.94916</v>
+        <v>11177.09022</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8169.38658</v>
+        <v>8195.557439999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>20966.50282</v>
@@ -1253,52 +1194,62 @@
         <v>23243.09272</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>31800.05056000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>306430.0943399999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>16136.858</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>22979357.19276</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>28595102.22011</v>
+        <v>28595243.9905</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>31815961.09499</v>
+        <v>31944392.28888</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>38200340.29408</v>
+        <v>40328120.23989</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>46038491.18662999</v>
+        <v>47148024.29651999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>56744719.36191</v>
+        <v>58227915.90758001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>54939397.81665999</v>
+        <v>63039236.98086</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>81275025.23969001</v>
+        <v>81382478.45132001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>93136865.13129</v>
+        <v>93136865.13128999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>114728204.07413</v>
+        <v>115166363.64673</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>153163043.96349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>155549516.89369</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>168179984.225</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>19710905.42832</v>
@@ -1307,37 +1258,42 @@
         <v>25058854.48292</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>27868496.41444</v>
+        <v>27971840.92407</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>33882774.74025</v>
+        <v>35999331.82735</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>40663465.39917</v>
+        <v>41652204.72366</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>51523775.21763001</v>
+        <v>53001873.55592</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>48209282.77245001</v>
+        <v>55667231.61200999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>72851764.15786001</v>
+        <v>72955928.68844</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>85238598.09318</v>
+        <v>85238598.09317999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>101471980.04367</v>
+        <v>101872451.51859</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>138459891.04528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>140649361.57285</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>152603551.908</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1445058.06761</v>
@@ -1346,19 +1302,19 @@
         <v>1879676.42898</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1449412.54757</v>
+        <v>1450699.85672</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2343072.98434</v>
+        <v>2349228.91469</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2856294.29301</v>
+        <v>2870609.30862</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2441327.55395</v>
+        <v>2485596.02925</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2514225.562210001</v>
+        <v>2705728.39245</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>3722149.76639</v>
@@ -1367,16 +1323,21 @@
         <v>4580008.755399999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6474095.493779999</v>
+        <v>6477202.309880001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4542985.5335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4591475.43148</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6767928.208</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2930899.88641</v>
@@ -1385,37 +1346,42 @@
         <v>3751850.23295</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3416719.25318</v>
+        <v>3420449.48061</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3540050.34741</v>
+        <v>3543962.211129999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5057112.078590001</v>
+        <v>5110778.87918</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7026742.362330001</v>
+        <v>7142310.1697</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7684591.840860001</v>
+        <v>8114570.485359999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10806105.93638</v>
+        <v>10809517.75441</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>18722753.26663</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>17961536.92382</v>
+        <v>18008261.60142</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>20870550.30026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21022508.41958001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>23576270.066</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>15014980.66613</v>
@@ -1424,160 +1390,180 @@
         <v>19218511.60975</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>22628994.99175</v>
+        <v>22724788.32596</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>27401441.34927</v>
+        <v>29506736.25727</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>32199418.15983</v>
+        <v>32982456.43605</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>41489193.19812</v>
+        <v>42802982.49455001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>37521163.19684</v>
+        <v>44301041.4005</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57812058.64145</v>
+        <v>57912817.08047</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>61459427.93909001</v>
+        <v>61459427.93909</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>76218246.66883999</v>
+        <v>76568239.98667002</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>112430745.45101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>114408307.37416</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>120821971.823</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>319966.80817</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>208816.2112400001</v>
+        <v>208816.21124</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>373369.62194</v>
+        <v>375903.26078</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>598210.05923</v>
+        <v>599404.4442599999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>550640.86774</v>
+        <v>688360.09981</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>566512.10323</v>
+        <v>570984.8624199999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>489302.17254</v>
+        <v>545891.3337000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>511449.81364</v>
+        <v>511444.08717</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>476408.13206</v>
+        <v>476408.1320600001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>818100.9572300002</v>
+        <v>818747.6206200002</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>615609.7605099999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>627070.34763</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1437381.811</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3268451.76444</v>
+        <v>3268451.764440001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3536247.73719</v>
+        <v>3536389.50758</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3947464.68055</v>
+        <v>3972551.364810001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4317565.55383</v>
+        <v>4328788.41254</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5375025.787459999</v>
+        <v>5495819.57286</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5220944.14428</v>
+        <v>5226042.351660001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6730115.044210001</v>
+        <v>7372005.36885</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8423261.081830001</v>
+        <v>8426549.762879999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>7898267.038109999</v>
+        <v>7898267.038110001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13256224.03046</v>
+        <v>13293912.12814</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14703152.91821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14900155.32084</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15576432.317</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1159857.5688</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1327881.18575</v>
+        <v>1328115.94414</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1814154.05553</v>
+        <v>1817406.87421</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2419981.83603</v>
+        <v>2424406.77363</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2351130.64007</v>
+        <v>2383407.67834</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2387599.09026</v>
+        <v>2428237.72966</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2705802.27232</v>
+        <v>2894900.37947</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3795259.06028</v>
+        <v>3801914.37156</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4244662.48864</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5037910.91914</v>
+        <v>5049156.780679999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5607429.45345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5661398.043380001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5759334.416</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8539.441280000001</v>
+        <v>8539.441279999997</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3522.61421</v>
+        <v>3522.614209999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>14566.07748</v>
@@ -1586,7 +1572,7 @@
         <v>49245.04196</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7624.642859999999</v>
+        <v>7624.64286</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>11701.76278</v>
@@ -1604,13 +1590,18 @@
         <v>41765.58896</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>28965.36474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29010.66537999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>58400.104</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>120605.94867</v>
@@ -1619,154 +1610,174 @@
         <v>166762.00348</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>296031.7785</v>
+        <v>296966.68186</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>285734.83278</v>
+        <v>286124.3390399999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>405599.9705200001</v>
+        <v>412121.1099300001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>372550.5466400001</v>
+        <v>373717.7912</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>409606.62436</v>
+        <v>434146.32751</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>513072.7920099999</v>
+        <v>515624.32061</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>615330.4549</v>
+        <v>615330.4549000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>782835.07857</v>
+        <v>782902.32355</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>978417.1112699999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>980570.5373900001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1044744.554</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1030712.17885</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1157596.56806</v>
+        <v>1157831.32645</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1503556.19955</v>
+        <v>1505874.11487</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2085001.96129</v>
+        <v>2089037.39263</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1937906.02669</v>
+        <v>1963661.92555</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2003346.78084</v>
+        <v>2042818.17568</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2289496.08488</v>
+        <v>2454054.48888</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3276221.67322</v>
+        <v>3280325.4559</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3610357.63337</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4213310.25161</v>
+        <v>4224488.86817</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4600046.977440001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4651816.84061</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4656189.758</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>2108594.19564</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2208366.55144</v>
+        <v>2208273.56344</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2133310.62502</v>
+        <v>2155144.4906</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1897583.7178</v>
+        <v>1904381.63891</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3023895.147390001</v>
+        <v>3112411.894520001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2833345.054020001</v>
+        <v>2797804.622</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4024312.77189</v>
+        <v>4477104.98938</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4628002.021550001</v>
+        <v>4624635.391319999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3653604.54947</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8218313.11132</v>
+        <v>8244755.34746</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9095723.46476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9238757.277460001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9817097.901000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2642382.910149999</v>
+        <v>2642382.91015</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>3990965.65258</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5098725.539450001</v>
+        <v>5122211.31087</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4539159.75588</v>
+        <v>4549922.87782</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5519331.09003</v>
+        <v>5566121.602980001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7976527.525209999</v>
+        <v>8283266.046489999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12939438.84894</v>
+        <v>14375176.43465</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16059384.81783</v>
+        <v>16073967.30536</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>18344678.9061</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>45297292.41821</v>
+        <v>45334485.48032</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30845969.99472999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>30892971.42154</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>43400784.681</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>458384.09791</v>
@@ -1775,19 +1786,19 @@
         <v>251849.47184</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>544542.0774</v>
+        <v>549852.94338</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>342239.3383999999</v>
+        <v>342240.62726</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>456601.0230899999</v>
+        <v>458710.12081</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>605586.91453</v>
+        <v>608207.7105999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>391489.59357</v>
+        <v>454917.06991</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>470169.28689</v>
@@ -1796,16 +1807,21 @@
         <v>1295931.74497</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>998488.01492</v>
+        <v>1002265.98848</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2356521.08524</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2345104.53907</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3135919.722</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>310535.89998</v>
@@ -1814,19 +1830,19 @@
         <v>525971.55451</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>593310.1428900001</v>
+        <v>594644.72477</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>894702.36892</v>
+        <v>894702.3689199999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>377204.78727</v>
+        <v>378235.0677200001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>923890.4614599998</v>
+        <v>988928.93779</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>822395.8054200001</v>
+        <v>986587.72988</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1318057.71303</v>
@@ -1838,13 +1854,18 @@
         <v>1406712.94489</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2680241.80094</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2683141.14263</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2599218.524</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>313131.90377</v>
@@ -1853,37 +1874,42 @@
         <v>371600.11619</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>505080.57875</v>
+        <v>505238.2140199999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>813673.1881500001</v>
+        <v>814417.98973</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>664695.37714</v>
+        <v>669979.3492299999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>871825.8193500002</v>
+        <v>919420.13565</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>988235.7561799999</v>
+        <v>1170059.41721</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1426420.98608</v>
+        <v>1427788.21174</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1778732.53007</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2117962.185409999</v>
+        <v>2124968.35151</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2338562.36575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2356193.59665</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1978107.63</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1672.89575</v>
@@ -1898,16 +1924,16 @@
         <v>4787.58354</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4132.97594</v>
+        <v>4136.01431</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2930.70641</v>
+        <v>2935.13292</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>39073.76642999998</v>
+        <v>39909.76070000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>66727.44035</v>
+        <v>66796.38506</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>2894.29604</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1555.55455</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>7808.911</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12645.28843</v>
@@ -1934,7 +1965,7 @@
         <v>6611.59732</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20571.21749</v>
+        <v>20571.21749000001</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>20317.30121</v>
@@ -1943,64 +1974,74 @@
         <v>24101.3788</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>15548.93809</v>
+        <v>16082.70759</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>11628.48095</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>47520.70931</v>
+        <v>47520.70931000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>129887.18989</v>
+        <v>129917.27653</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>91755.10253999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>91807.27223000002</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>61229.514</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>90950.53633999999</v>
+        <v>90950.53634000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>112232.63852</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>239191.01193</v>
+        <v>239195.68952</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>332538.79633</v>
+        <v>332539.2073000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>176493.52273</v>
+        <v>176563.1176</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>300568.14858</v>
+        <v>301544.5874199999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>175144.88826</v>
+        <v>176716.12825</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>247958.45528</v>
+        <v>247966.53462</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>636013.27119</v>
+        <v>636013.2711899999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>321344.2315199999</v>
+        <v>321427.91902</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1841364.52305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1841370.93381</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1203329.996</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1139160.14117</v>
@@ -2009,40 +2050,45 @@
         <v>1338433.4772</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2384183.65821</v>
+        <v>2400861.66889</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1314631.62741</v>
+        <v>1324247.16055</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2813986.92577</v>
+        <v>2819614.72978</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4439237.318890002</v>
+        <v>4475667.07361</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9636021.11083</v>
+        <v>10610720.89109</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10795134.63455</v>
+        <v>10802313.48291</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>11774936.97763</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>37801260.94539001</v>
+        <v>37829204.22343</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>17107244.11859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>17142068.65226</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>31354969.875</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6734.196539999999</v>
+        <v>6734.19654</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4560.922229999999</v>
@@ -2054,10 +2100,10 @@
         <v>508.83372</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>704.5258400000001</v>
+        <v>704.52584</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2259.631820000001</v>
+        <v>2541.63918</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>2855.03719</v>
@@ -2072,28 +2118,33 @@
         <v>2935.8628</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6270.61987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6169.52414</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10894.521</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>59480.0456</v>
+        <v>59480.04560000001</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>388856.18219</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>361048.4345400001</v>
+        <v>361048.43454</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>127158.32158</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>86820.5848</v>
+        <v>86820.58480000001</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>4501.985300000001</v>
@@ -2102,7 +2153,7 @@
         <v>10884.51584</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>24905.37127</v>
+        <v>25466.30396999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>2001.63293</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>561.87967</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>155.954</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>249687.9046599999</v>
+        <v>249687.90466</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>978550.5630500001</v>
+        <v>978550.5630500002</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>459253.17812</v>
+        <v>459253.1781399999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>688348.48034</v>
+        <v>688749.56773</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>918374.06624</v>
+        <v>951040.79168</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>801625.16007</v>
+        <v>955417.46522</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>857789.43713</v>
+        <v>906443.1769900001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1696513.11402</v>
+        <v>1701911.57078</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1696847.00203</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2513377.45178</v>
+        <v>2511729.32205</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4421892.944530001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4424998.32653</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3049150.034</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1483118.0646</v>
@@ -2165,37 +2226,42 @@
         <v>1994248.01327</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2543025.83832</v>
+        <v>2567079.49981</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1999264.34131</v>
+        <v>2014714.32015</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3467988.332050001</v>
+        <v>3504862.50483</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5193115.499129999</v>
+        <v>5245374.33748</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10122564.55727</v>
+        <v>11125413.5681</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12244652.92989</v>
+        <v>12270861.91565</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>13178808.40218</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>41997910.19844</v>
+        <v>42039303.97705</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>22167461.86422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>22247824.39013</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>35756184.813</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2647.61422</v>
@@ -2204,37 +2270,42 @@
         <v>2457.17804</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2730.84238</v>
+        <v>2730.842380000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3999.19321</v>
+        <v>3999.193209999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8460.363019999999</v>
+        <v>8462.653390000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>17222.0287</v>
+        <v>17246.8408</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5265.077719999999</v>
+        <v>5606.88569</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5114.71062</v>
+        <v>5114.8812</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>5354.457600000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7196.241970000002</v>
+        <v>7200.68597</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8529.77045</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8530.454360000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12756.929</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>34643.89584999999</v>
@@ -2243,37 +2314,42 @@
         <v>29322.92715</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>22946.42152</v>
+        <v>23308.73091000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>17071.22474</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>55925.07533000001</v>
+        <v>55925.07533</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>143639.02142</v>
+        <v>143812.68828</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>88451.06388</v>
+        <v>89104.73165</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>75607.52007</v>
+        <v>75613.19231</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>40106.30786000001</v>
+        <v>40106.30786</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>175277.12579</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>69688.93736000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>69688.93735999998</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>68080.208</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>20604.48613</v>
@@ -2282,7 +2358,7 @@
         <v>10556.3244</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>17342.68064</v>
+        <v>17342.68064000001</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>176857.62582</v>
@@ -2291,10 +2367,10 @@
         <v>215235.69857</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>30880.13682</v>
+        <v>32458.63774</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>229941.48122</v>
+        <v>232194.75611</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>193373.65467</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>208437.90924</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>417355.778</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1089452.4976</v>
@@ -2321,37 +2402,42 @@
         <v>1287765.60684</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1852087.95686</v>
+        <v>1870028.73787</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1305271.70489</v>
+        <v>1317095.77564</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2616904.11614</v>
+        <v>2636237.886539999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4304148.547739999</v>
+        <v>4320956.1708</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9200770.463340001</v>
+        <v>10150640.939</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11027339.64753</v>
+        <v>11034603.3405</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>11666703.98659</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>39295161.25728</v>
+        <v>39334593.93881</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>16691650.51002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>16746837.16054</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>33660785.037</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>797.80388</v>
@@ -2366,13 +2452,13 @@
         <v>118.79908</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>406.86086</v>
+        <v>406.8608600000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2306.87492</v>
+        <v>2337.62075</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>534.7492900000001</v>
+        <v>543.7557099999999</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>201.58833</v>
@@ -2381,19 +2467,24 @@
         <v>47907.31328</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>673.0793900000001</v>
+        <v>700.17744</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>2555.2528</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>9383.731</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>70400.77605</v>
+        <v>70400.77605000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>353478.65931</v>
@@ -2408,7 +2499,7 @@
         <v>70683.62344</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>26943.39869000001</v>
+        <v>26943.39869</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>11310.7407</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>3.687</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>23.606</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>264570.99087</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>310381.78857</v>
+        <v>310381.7885699999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>270855.49614</v>
+        <v>276606.06723</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>410993.78546</v>
+        <v>414619.69355</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>500372.5946900001</v>
+        <v>517910.7067</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>667975.4908399998</v>
+        <v>701618.9804199999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>586290.98112</v>
+        <v>636011.7592399999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>923131.7457600001</v>
+        <v>942071.19573</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1296239.56959</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2240381.36805</v>
+        <v>2242310.92308</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5186595.797350001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5211770.988830001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1587799.524</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>390699.05594</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>336816.9622899999</v>
+        <v>336816.96229</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>782290.4463300002</v>
+        <v>784538.1067300001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>611762.82586</v>
+        <v>616629.96253</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>919036.7854399999</v>
+        <v>934314.37251</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1170197.10445</v>
+        <v>1191474.58111</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1695412.2025</v>
+        <v>2028784.22116</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2048460.14503</v>
+        <v>2051468.25922</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2625673.9232</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5906701.354060001</v>
+        <v>5913378.978220001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6310176.49206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6325152.537330001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7727692.151</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>320653.45066</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>326934.4753800001</v>
+        <v>326934.47538</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>610916.2663799999</v>
+        <v>613163.92678</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>544501.00607</v>
+        <v>549368.14274</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>836399.96309</v>
+        <v>851674.60085</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>992975.9943699999</v>
+        <v>1014252.24103</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1213880.93643</v>
+        <v>1503901.38685</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1722139.44536</v>
+        <v>1725147.55955</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2207805.33744</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5163346.24104</v>
+        <v>5170023.8652</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5098859.630120001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5111389.258990001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6160299.91</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>70045.60528</v>
@@ -2558,19 +2669,19 @@
         <v>171374.17995</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>67261.81978999999</v>
+        <v>67261.81979000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>82636.82234999999</v>
+        <v>82639.77166000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>177221.11008</v>
+        <v>177222.34008</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>481531.26607</v>
+        <v>524882.8343099999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>326320.6996699999</v>
+        <v>326320.69967</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>417868.58576</v>
@@ -2579,91 +2690,106 @@
         <v>743355.1130199999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1211316.86194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1213763.27834</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1567392.241</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>2877159.98525</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3868267.22846</v>
+        <v>3868174.24046</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3906719.87982</v>
+        <v>3925738.19493</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3825716.30651</v>
+        <v>3822960.23405</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4156201.11993</v>
+        <v>4239356.620159999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4446559.97565</v>
+        <v>4644221.7499</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5145774.86106</v>
+        <v>5698083.634769999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6394273.764460002</v>
+        <v>6376272.52181</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>6193801.130190001</v>
+        <v>6193801.130190002</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5610993.977029999</v>
+        <v>5626557.87251</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11464055.10321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>11558751.77154</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9734005.618000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>360480.1416000001</v>
+        <v>360480.1416</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>383523.87811</v>
+        <v>383523.8781099999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>644228.36323</v>
+        <v>647095.7285399999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>497219.7044</v>
+        <v>503716.0700700001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>714806.7757999999</v>
+        <v>728558.7617499999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1088702.81141</v>
+        <v>1121987.84203</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1157618.95209</v>
+        <v>1280394.71428</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2622965.04805</v>
+        <v>2623258.57919</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1703496.71995</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3782012.91968</v>
+        <v>3785774.53912</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5454991.605690001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5457590.61201</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3728112.771</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>68293.67826999999</v>
@@ -2672,115 +2798,130 @@
         <v>95514.18996</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>121563.14599</v>
+        <v>122177.9349</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>114475.6436</v>
+        <v>114492.51146</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>106363.29591</v>
+        <v>108075.33125</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>109785.13494</v>
+        <v>126622.10728</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>115848.36625</v>
+        <v>121682.99557</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>181285.49189</v>
+        <v>181323.91887</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>163991.4554</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>197663.10592</v>
+        <v>199069.92482</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>243173.85452</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>244277.44546</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>160546.201</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>292186.4633300001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>288009.6881499999</v>
+        <v>288009.6881500001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>522665.21724</v>
+        <v>524917.79364</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>382744.0608</v>
+        <v>389223.5586099999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>608443.47989</v>
+        <v>620483.4305</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>978917.6764700001</v>
+        <v>995365.7347499999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1041770.58584</v>
+        <v>1158711.71871</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2441679.556159999</v>
+        <v>2441934.66032</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1539505.26455</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3584349.813760001</v>
+        <v>3586704.6143</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5211817.751170001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5213313.166549999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3567566.57</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>377816.16819</v>
+        <v>377816.1681900001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>587290.8446899999</v>
+        <v>587364.3449200001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1922111.53148</v>
+        <v>1938111.25583</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>663160.2625600001</v>
+        <v>667829.1706299999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>788188.1839900002</v>
+        <v>803821.83348</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1300956.32629</v>
+        <v>1466309.19495</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>992388.61438</v>
+        <v>1073940.31935</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2493254.01349</v>
+        <v>2493133.36535</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1764347.48242</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2490343.65943</v>
+        <v>2496045.8033</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2436528.9132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2461177.12574</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3198757.889</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>20920.86817</v>
@@ -2792,226 +2933,254 @@
         <v>24848.63351</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>18024.23848</v>
+        <v>18427.01318</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>29464.33948</v>
+        <v>30564.94597</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>43472.07569</v>
+        <v>43586.91182</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>46115.38648</v>
+        <v>46509.89772</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>55874.22888</v>
+        <v>55883.20262</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>96354.7616</v>
+        <v>96354.76159999998</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>79814.98075</v>
+        <v>79828.14008000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>67629.40009000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>67649.59787</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>71472.70600000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>80395.82725</v>
+        <v>80395.82725000002</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>117426.03347</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>209522.92868</v>
+        <v>209526.4151</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>125517.99578</v>
+        <v>126644.92092</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>119923.05819</v>
+        <v>124473.5226</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>215691.58618</v>
+        <v>350262.8691899999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>196729.50396</v>
+        <v>223743.69795</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>262467.00441</v>
+        <v>262468.09709</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>245676.18067</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>349864.60821</v>
+        <v>351662.98592</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>297410.74954</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>298093.96851</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>350649.29</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>276499.47277</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>434432.71478</v>
+        <v>434506.21501</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1687739.96929</v>
+        <v>1703736.20722</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>519618.0282999999</v>
+        <v>522757.23653</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>638800.7863200001</v>
+        <v>648783.3649100001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1041792.66442</v>
+        <v>1072459.41394</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>749543.7239399999</v>
+        <v>803686.7236800001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2174912.7802</v>
+        <v>2174782.06564</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1422316.54015</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2060664.07047</v>
+        <v>2064554.6773</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2071488.76357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2095433.55936</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2776635.893</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2859823.95866</v>
+        <v>2859823.958660001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3664500.261880001</v>
+        <v>3664333.773649999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2628836.71157</v>
+        <v>2634722.66764</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3659775.748350001</v>
+        <v>3658847.13349</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4082819.71174</v>
+        <v>4164093.54843</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4234306.460770001</v>
+        <v>4299900.39698</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5311005.19877</v>
+        <v>5904538.029700001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>6523984.79902</v>
+        <v>6506397.735649999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>6132950.36772</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>6902663.237279999</v>
+        <v>6916286.608330001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>14482517.7957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14555165.25781</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10263360.5</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>343357.1159399999</v>
+        <v>343357.11594</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>552094.9217199999</v>
+        <v>552094.92172</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>579942.2334800001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>655157.8499200001</v>
+        <v>656085.5315499998</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>635765.93563</v>
+        <v>638939.8881399999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>777650.9014000001</v>
+        <v>783034.15152</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>938305.65986</v>
+        <v>1037601.34318</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1228357.96829</v>
+        <v>1228683.83403</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1066958.62989</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1552984.69397</v>
+        <v>1558214.89279</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2290818.54098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2322580.21654</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1817879.623</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2516466.84272</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3112405.34016</v>
+        <v>3112238.85193</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2048894.47809</v>
+        <v>2054780.43416</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3004617.89843</v>
+        <v>3002761.60194</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3447053.77611</v>
+        <v>3525153.66029</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3456655.55937</v>
+        <v>3516866.24546</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4372699.53891</v>
+        <v>4866936.686519999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5295626.830730001</v>
+        <v>5277713.90162</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5065991.73783</v>
+        <v>5065991.737830001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5349678.543310001</v>
+        <v>5358071.71554</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>12191699.25472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>12232585.04127</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8445480.877</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4514</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5528</v>
+        <v>5533</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6020</v>
+        <v>6034</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6662</v>
+        <v>6701</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6831</v>
+        <v>6922</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7076</v>
+        <v>7351</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7484</v>
+        <v>7526</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8156</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8150</v>
+        <v>8455</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7925</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8376</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>